--- a/AtividadeP3.xlsx
+++ b/AtividadeP3.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="4"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="Ex3" sheetId="5" r:id="rId4"/>
     <sheet name="Ex4" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="66">
   <si>
     <t>Amostras</t>
   </si>
@@ -202,15 +197,36 @@
   </si>
   <si>
     <t>ProbEst4</t>
+  </si>
+  <si>
+    <t>Fim Posto1</t>
+  </si>
+  <si>
+    <t>Início Posto1</t>
+  </si>
+  <si>
+    <t>Início Posto2</t>
+  </si>
+  <si>
+    <t>Fim Posto2</t>
+  </si>
+  <si>
+    <t>Início Posto3</t>
+  </si>
+  <si>
+    <t>Fim Posto3</t>
+  </si>
+  <si>
+    <t>Início Posto4</t>
+  </si>
+  <si>
+    <t>Fim Posto4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,9 +313,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -307,7 +320,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,7 +630,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,20 +655,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">-8*LN(RAND())</f>
-        <v>5.0117496766686482</v>
+        <v>5.0567933097550206</v>
       </c>
       <c r="B2">
         <f>380/3600</f>
@@ -660,467 +676,467 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">-3*LN(RAND())</f>
-        <v>1.1999848731259897</v>
+        <v>1.3953821307294194</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A21" ca="1" si="0">-8*LN(RAND())</f>
-        <v>3.7783135525635485</v>
+        <v>5.4730194142844812</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C10" ca="1" si="1">-3*LN(RAND())</f>
-        <v>3.4515223228344145</v>
-      </c>
-      <c r="E3" s="3" t="s">
+        <f t="shared" ref="C3:C9" ca="1" si="1">-3*LN(RAND())</f>
+        <v>4.051838290516474</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0939314109380565</v>
+        <v>2.2114218816213236</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11993793351026341</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>4.1352958598649838</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F4">
         <f ca="1">1/F7</f>
-        <v>0.10485525622933362</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>0.13949063325546321</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I4">
         <f ca="1">1/I7</f>
-        <v>0.10485525622933362</v>
-      </c>
-      <c r="K4" s="6" t="s">
+        <v>0.13949063325546321</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L4">
         <f ca="1">1/L7</f>
-        <v>0.10485525622933362</v>
-      </c>
-      <c r="N4" s="6" t="s">
+        <v>0.13949063325546321</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="O4">
         <f ca="1">1/O7</f>
-        <v>0.10485525622933362</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+        <v>0.13949063325546321</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R4">
         <f ca="1">1/R7</f>
-        <v>0.29222705923193487</v>
+        <v>0.42019931408158695</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>10.915340797237207</v>
+        <v>7.9415020070088662</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4928572590700836</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>3.4944090940470582</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5">
         <f ca="1">B2/F4</f>
-        <v>1.0066787240945774</v>
-      </c>
-      <c r="H5" s="5" t="s">
+        <v>0.7567214592985686</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I5">
         <f ca="1">B2/I4</f>
-        <v>1.0066787240945774</v>
-      </c>
-      <c r="K5" s="5" t="s">
+        <v>0.7567214592985686</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L5">
         <f ca="1">B2/L4</f>
-        <v>1.0066787240945774</v>
-      </c>
-      <c r="N5" s="5" t="s">
+        <v>0.7567214592985686</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O5">
         <f ca="1">B2/O4</f>
-        <v>1.0066787240945774</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+        <v>0.7567214592985686</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="R5">
         <f ca="1">B2/R4</f>
-        <v>0.36121075109536038</v>
+        <v>0.25120354083933755</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.523338773033309</v>
+        <v>19.149077627517766</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.082652532067387</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>8.939554327249738E-2</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F6">
         <f ca="1">F7+F8</f>
-        <v>-1491.1798143953629</v>
-      </c>
-      <c r="H6" s="5" t="s">
+        <v>31.203583929179814</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I6">
         <f ca="1">I7+I8</f>
-        <v>-1643.5854862573574</v>
-      </c>
-      <c r="K6" s="5" t="s">
+        <v>32.812897284093012</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L6">
         <f ca="1">L7+L8</f>
-        <v>-1931.0850414905551</v>
-      </c>
-      <c r="N6" s="5" t="s">
+        <v>37.272715917722536</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O6">
         <f ca="1">O7+O8</f>
-        <v>19.786956333527577</v>
-      </c>
-      <c r="Q6" s="5" t="s">
+        <v>17.418940140723279</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R6">
         <f ca="1">R7+R8</f>
-        <v>5.5222472058333363</v>
+        <v>3.319164431973129</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1845285716433165</v>
+        <v>9.6992227514205318</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10.464669323989835</v>
-      </c>
-      <c r="E7" s="5" t="s">
+        <v>2.9722221126965609</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7">
         <f ca="1">SUM(A2:A21)/20</f>
-        <v>9.5369563335275753</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>7.1689401407232811</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I7">
         <f ca="1">SUM(A2:A21)/20</f>
-        <v>9.5369563335275753</v>
-      </c>
-      <c r="K7" s="5" t="s">
+        <v>7.1689401407232811</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L7">
         <f ca="1">SUM(A2:A21)/20</f>
-        <v>9.5369563335275753</v>
-      </c>
-      <c r="N7" s="5" t="s">
+        <v>7.1689401407232811</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O7">
         <f ca="1">SUM(A2:A21)/20</f>
-        <v>9.5369563335275753</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+        <v>7.1689401407232811</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="R7">
         <f ca="1">SUM(C2:C9)/8</f>
-        <v>3.4219965893244666</v>
+        <v>2.3798230184779348</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0116365210475786</v>
+        <v>8.5728415298039149</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4569374367289272</v>
-      </c>
-      <c r="E8" s="5" t="s">
+        <v>1.2780414420084218</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F8">
         <f ca="1">(B2*F14)/(F4*(F4-B2))</f>
-        <v>-1500.7167707288904</v>
-      </c>
-      <c r="H8" s="5" t="s">
+        <v>24.034643788456535</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I8">
         <f ca="1">(B2*I14)/(I4*(I4-B2))</f>
-        <v>-1653.1224425908849</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>25.643957143369732</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L8">
         <f ca="1">(B2*L14)/(L4*(L4-B2))</f>
-        <v>-1940.6219978240827</v>
-      </c>
-      <c r="N8" s="5" t="s">
+        <v>30.103775776999257</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="O8">
         <f>10.25</f>
         <v>10.25</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R8">
         <f ca="1">(B2*R14)/(R4*(R4-B2))</f>
-        <v>2.1002506165088701</v>
+        <v>0.93934141349519407</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9475659723915029</v>
+        <v>11.583522779937116</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1074110332688303</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>1.6219996746880616</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F9">
         <f ca="1">((B2)^2)/F4*(F4-B2)</f>
-        <v>-7.4414178955013876E-5</v>
-      </c>
-      <c r="H9" s="5" t="s">
+        <v>2.7106034936178014E-3</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I9">
         <f ca="1">((B2)^2)/I4*(I4-B2)</f>
-        <v>-7.4414178955013876E-5</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>2.7106034936178014E-3</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L9">
         <f>8</f>
         <v>8</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O9">
         <f ca="1">((B2)^2)/O4*(O4-B2)</f>
-        <v>-7.4414178955013876E-5</v>
-      </c>
-      <c r="Q9" s="5" t="s">
+        <v>2.7106034936178014E-3</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="R9">
         <f ca="1">((B2)^2)/R4*(R4-N2)</f>
-        <v>1.1141975308641973E-2</v>
+        <v>1.1141975308641975E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.609394258516872</v>
+        <v>1.1219873223916303</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F10">
         <f ca="1">B2/(F4-B2)</f>
-        <v>-150.72919764898182</v>
-      </c>
-      <c r="H10" s="5" t="s">
+        <v>3.1105146270474813</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I10">
         <f ca="1">B2/(I4-B2)</f>
-        <v>-150.72919764898182</v>
-      </c>
-      <c r="K10" s="5" t="s">
+        <v>3.1105146270474813</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L10">
         <f ca="1">B2/(L4-B2)</f>
-        <v>-150.72919764898182</v>
-      </c>
-      <c r="N10" s="5" t="s">
+        <v>3.1105146270474813</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O10">
         <f ca="1">B2/(O4-B2)</f>
-        <v>-150.72919764898182</v>
-      </c>
-      <c r="Q10" s="5" t="s">
+        <v>3.1105146270474813</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="R10">
         <f ca="1">B2/(R4-B2)</f>
-        <v>0.56546153792466691</v>
+        <v>0.33547640051732552</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0638868713234624</v>
-      </c>
-      <c r="E11" s="5" t="s">
+        <v>6.1813845561110599</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F11">
         <f ca="1">(1-F5)*((F5)^4)</f>
-        <v>-6.8589409297189451E-3</v>
-      </c>
-      <c r="H11" s="5" t="s">
+        <v>7.9771544720290632E-2</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I11">
         <f ca="1">(1-I5)*((I5)^4)</f>
-        <v>-6.8589409297189451E-3</v>
-      </c>
-      <c r="K11" s="5" t="s">
+        <v>7.9771544720290632E-2</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L11">
         <f ca="1">(1-L5)*((L5)^4)</f>
-        <v>-6.8589409297189451E-3</v>
-      </c>
-      <c r="N11" s="5" t="s">
+        <v>7.9771544720290632E-2</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O11">
         <f ca="1">(1-O5)*((O5)^4)</f>
-        <v>-6.8589409297189451E-3</v>
-      </c>
-      <c r="Q11" s="5" t="s">
+        <v>7.9771544720290632E-2</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="R11">
         <f ca="1">(1-R5)*((R5)^4)</f>
-        <v>1.0874273979891269E-2</v>
+        <v>2.9817196603495553E-3</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>26.235401632448504</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>2.3537884385293411</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12">
         <f ca="1">1-F5</f>
-        <v>-6.6787240945773707E-3</v>
-      </c>
-      <c r="H12" s="5" t="s">
+        <v>0.2432785407014314</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I12">
         <f ca="1">1-I5</f>
-        <v>-6.6787240945773707E-3</v>
-      </c>
-      <c r="K12" s="5" t="s">
+        <v>0.2432785407014314</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L12">
         <f ca="1">1-L5</f>
-        <v>-6.6787240945773707E-3</v>
-      </c>
-      <c r="N12" s="5" t="s">
+        <v>0.2432785407014314</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O12">
         <f ca="1">1-O5</f>
-        <v>-6.6787240945773707E-3</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+        <v>0.2432785407014314</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="R12">
         <f ca="1">1-R5</f>
-        <v>0.63878924890463962</v>
+        <v>0.7487964591606624</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>13.988949049518867</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>2.1949563032983517</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F13">
         <v>90</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I13">
         <v>90</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L13">
         <v>90</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O13">
         <v>90</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="R13">
@@ -1130,84 +1146,84 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4859982688551908E-2</v>
-      </c>
-      <c r="E14" s="5" t="s">
+        <v>24.972894753485669</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F14">
         <f ca="1">1+((2/F7)^2)</f>
-        <v>1.0439784990356769</v>
-      </c>
-      <c r="H14" s="5" t="s">
+        <v>1.0778305470640406</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I14">
         <f>1.15</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L14">
         <f>1.35</f>
         <v>1.35</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O14">
         <f>1.45</f>
         <v>1.45</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="R14">
         <f ca="1">1+((1/R7)^2)</f>
-        <v>1.0853966541473448</v>
+        <v>1.1765674635546362</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>40.88623708148755</v>
+        <v>9.1330709833881656</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>18.919772372909531</v>
+        <v>6.6896132469588387</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7539368314123074</v>
+        <v>4.8495037568239301</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61597054232115012</v>
+        <v>3.603964976902013</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.818329327730307</v>
+        <v>3.6715280856658601</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37100014435562323</v>
+        <v>2.9828968605416373</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>11.974983300315589</v>
+        <v>5.9358122290200468</v>
       </c>
     </row>
   </sheetData>
@@ -1240,23 +1256,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">-8*LN(RAND())</f>
-        <v>2.9000866044607037</v>
+        <v>7.9214295687465475</v>
       </c>
       <c r="B2">
         <f>380/3600</f>
@@ -1267,167 +1283,167 @@
       </c>
       <c r="D2">
         <f ca="1">-3*LN(RAND())</f>
-        <v>8.2260361153395678</v>
+        <v>1.0527690425149472</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A21" ca="1" si="0">-8*LN(RAND())</f>
-        <v>14.148289515313405</v>
+        <v>0.46934907247812019</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D9" ca="1" si="1">-3*LN(RAND())</f>
-        <v>4.7104828153222922</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>9.8598488688554635</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="10"/>
+      <c r="O3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="R3" s="3" t="s">
+      <c r="P3" s="10"/>
+      <c r="R3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3197706120646822</v>
+        <v>6.419179413170605</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.504508286132463</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>0.43514449024355184</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G4">
         <f ca="1">1/G8</f>
-        <v>0.12849162492230148</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>0.17890437618656352</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J4">
         <f ca="1">1/J8</f>
-        <v>0.12849162492230148</v>
-      </c>
-      <c r="L4" s="5" t="s">
+        <v>0.17890437618656352</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M4">
         <f ca="1">1/M8</f>
-        <v>0.12849162492230148</v>
-      </c>
-      <c r="O4" s="5" t="s">
+        <v>0.17890437618656352</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P4">
         <f ca="1">1/P8</f>
-        <v>0.12849162492230148</v>
-      </c>
-      <c r="R4" s="5" t="s">
+        <v>0.17890437618656352</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="S4">
         <f ca="1">1/S8</f>
-        <v>0.31264377704077789</v>
+        <v>0.29997639276799659</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2809381623371339</v>
+        <v>0.40340598495675167</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7239468967095526</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>4.4733660610932784</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1">B2/G4</f>
-        <v>0.82149755378519573</v>
-      </c>
-      <c r="I5" s="5" t="s">
+        <v>0.59001103162217239</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J5">
         <f ca="1">$B2/J4</f>
-        <v>0.82149755378519573</v>
-      </c>
-      <c r="L5" s="5" t="s">
+        <v>0.59001103162217239</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M5">
         <f ca="1">$B2/M4</f>
-        <v>0.82149755378519573</v>
-      </c>
-      <c r="O5" s="5" t="s">
+        <v>0.59001103162217239</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P5">
         <f ca="1">$B2/P4</f>
-        <v>0.82149755378519573</v>
-      </c>
-      <c r="R5" s="5" t="s">
+        <v>0.59001103162217239</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S5">
         <f ca="1">$B2/S4</f>
-        <v>0.33762244223971238</v>
+        <v>0.35187954152509865</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27077184425354539</v>
+        <v>16.308570655673627</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2782704775764382</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>2.9705975147212973</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G6">
         <f ca="1">B2*(1-G16)</f>
-        <v>0.10555491263878661</v>
-      </c>
-      <c r="I6" s="5" t="s">
+        <v>0.10555549825079959</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J6">
         <f ca="1">$B2*(1-J16)</f>
-        <v>0.10555491263878661</v>
-      </c>
-      <c r="L6" s="5" t="s">
+        <v>0.10555549825079959</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M6">
         <f ca="1">$B2*(1-M16)</f>
-        <v>0.10555491263878661</v>
-      </c>
-      <c r="O6" s="5" t="s">
+        <v>0.10555549825079959</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="P6">
         <f ca="1">$B2*(1-P16)</f>
         <v>0.10555555555555556</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="S6">
@@ -1438,332 +1454,332 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.031146264157577</v>
+        <v>12.946847332366707</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9921421611740553</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>2.571684685593735</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G7">
         <f ca="1">G11/G6</f>
-        <v>7.7983722701479818</v>
-      </c>
-      <c r="I7" s="5" t="s">
+        <v>5.5921366213444355</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J7">
         <f ca="1">J11/J6</f>
-        <v>7.7983722701479818</v>
-      </c>
-      <c r="L7" s="5" t="s">
+        <v>5.5921366213444355</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M7">
         <f ca="1">M11/M6</f>
-        <v>7.7983722701479818</v>
-      </c>
-      <c r="O7" s="5" t="s">
+        <v>5.5921366213444355</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P7">
         <f ca="1">P11/P6</f>
-        <v>7.7983247718966906</v>
-      </c>
-      <c r="R7" s="5" t="s">
+        <v>5.5921335854452563</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S7">
         <f ca="1">S11/S6</f>
-        <v>3.19863645440768</v>
+        <v>3.3337327024882812</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6823351280281962</v>
+        <v>5.5014802838414933</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73110055285383369</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>1.5747672028450852</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G8">
         <f ca="1">SUM(A2:A21)/20</f>
-        <v>7.7826084042808006</v>
-      </c>
-      <c r="I8" s="5" t="s">
+        <v>5.5895781943153171</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J8">
         <f ca="1">SUM($A2:$A21)/20</f>
-        <v>7.7826084042808006</v>
-      </c>
-      <c r="L8" s="5" t="s">
+        <v>5.5895781943153171</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="M8">
         <f ca="1">SUM($A2:$A21)/20</f>
-        <v>7.7826084042808006</v>
-      </c>
-      <c r="O8" s="5" t="s">
+        <v>5.5895781943153171</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P8">
         <f ca="1">SUM($A2:$A21)/20</f>
-        <v>7.7826084042808006</v>
-      </c>
-      <c r="R8" s="5" t="s">
+        <v>5.5895781943153171</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="S8">
         <f ca="1">SUM(D2:D9)/8</f>
-        <v>3.1985284001656962</v>
+        <v>3.333595656553566</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2915052390615696</v>
+        <v>2.1072246882927832</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4217398962173643</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>3.7305873865611741</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G9">
         <f ca="1">G10/G6</f>
-        <v>3.013096317161327E-3</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>4.7195854580960435E-4</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J9">
         <f ca="1">J10/J6</f>
-        <v>3.013096317161327E-3</v>
-      </c>
-      <c r="L9" s="5" t="s">
+        <v>4.7195854580960435E-4</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M9">
         <f ca="1">M10/M6</f>
-        <v>75.789935304824127</v>
-      </c>
-      <c r="O9" s="5" t="s">
+        <v>75.789514829365132</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P9">
         <f>10.25</f>
         <v>10.25</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="S9">
         <f ca="1">S10/S6</f>
-        <v>1.9167122912317481E-5</v>
+        <v>2.4363419631834323E-5</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34937525132309605</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>1.8450028024695544</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G10">
         <f ca="1">((6-5)*G24)+((7-5)*G25)+((8-5)*G26)</f>
-        <v>3.1804711853021354E-4</v>
-      </c>
-      <c r="I10" s="5" t="s">
+        <v>4.9817819456655609E-5</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J10">
         <f ca="1">((6-5)*J24)+((7-5)*J25)+((8-5)*J26)</f>
-        <v>3.1804711853021354E-4</v>
-      </c>
-      <c r="L10" s="5" t="s">
+        <v>4.9817819456655609E-5</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="M10">
         <f>8</f>
         <v>8</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P10">
         <f ca="1">((6-5)*P24)+((7-5)*P25)+((8-5)*P26)</f>
-        <v>3.1804711853021354E-4</v>
-      </c>
-      <c r="R10" s="5" t="s">
+        <v>4.9817819456655609E-5</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="S10">
         <f ca="1">((6-5)*S24)+((7-5)*S25)+((8-5)*S26)</f>
-        <v>2.0231963074112898E-6</v>
+        <v>2.5716942944714007E-6</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2418358464063828</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>1.3348620579843637</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G11">
         <f ca="1">(1*G19)+(2*G20)+(3*G21)+(4*G22)+(5*G23)+(6*G24)+(7*G25)+(8*G26)</f>
-        <v>0.82315650370020621</v>
-      </c>
-      <c r="I11" s="5" t="s">
+        <v>0.59028076735255486</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J11">
         <f ca="1">(1*J19)+(2*J20)+(3*J21)+(4*J22)+(5*J23)+(6*J24)+(7*J25)+(8*J26)</f>
-        <v>0.82315650370020621</v>
-      </c>
-      <c r="L11" s="5" t="s">
+        <v>0.59028076735255486</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M11">
         <f ca="1">(1*M19)+(2*M20)+(3*M21)+(4*M22)+(5*M23)+(6*M24)+(7*M25)+(8*M26)</f>
-        <v>0.82315650370020621</v>
-      </c>
-      <c r="O11" s="5" t="s">
+        <v>0.59028076735255486</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P11">
         <f ca="1">(1*P19)+(2*P20)+(3*P21)+(4*P22)+(5*P23)+(6*P24)+(7*P25)+(8*P26)</f>
-        <v>0.82315650370020621</v>
-      </c>
-      <c r="R11" s="5" t="s">
+        <v>0.59028076735255486</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="S11">
         <f ca="1">(1*S19)+(2*S20)+(3*S21)+(4*S22)+(5*S23)+(6*S24)+(7*S25)+(8*S26)</f>
-        <v>0.33763384796525509</v>
+        <v>0.35189400748487415</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>11.088906860619815</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>3.6004045413603385</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G12">
         <f ca="1">(1/FACT(4))*((B2/G4)^4)*G13</f>
-        <v>8.358504425253618E-3</v>
-      </c>
-      <c r="I12" s="5" t="s">
+        <v>2.7999421698298999E-3</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J12">
         <f ca="1">(1/FACT(4))*(($B2/J4)^4)*J13</f>
-        <v>8.358504425253618E-3</v>
-      </c>
-      <c r="L12" s="5" t="s">
+        <v>2.7999421698298999E-3</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M12">
         <f ca="1">(1/FACT(4))*(($B2/M4)^4)*M13</f>
-        <v>8.358504425253618E-3</v>
-      </c>
-      <c r="O12" s="5" t="s">
+        <v>2.7999421698298999E-3</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P12">
         <f ca="1">(1/FACT(4))*(($B2/P4)^4)*P13</f>
-        <v>8.358504425253618E-3</v>
-      </c>
-      <c r="R12" s="5" t="s">
+        <v>2.7999421698298999E-3</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="S12">
         <f ca="1">(1/FACT(4))*(($B2/S4)^4)*S13</f>
-        <v>3.8627655083067129E-4</v>
+        <v>4.4932437402461257E-4</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1621194880757653</v>
-      </c>
-      <c r="F13" s="5" t="s">
+        <v>1.1941874797672938</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G13">
         <f ca="1">(G17+((1/FACT(5))*((B2/G4)^5)) * G18)^-1</f>
-        <v>0.44046836291411756</v>
-      </c>
-      <c r="I13" s="5" t="s">
+        <v>0.55452327022665771</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J13">
         <f ca="1">(J17+((1/FACT(5))*(($B2/J4)^5)) * J18)^-1</f>
-        <v>0.44046836291411756</v>
-      </c>
-      <c r="L13" s="5" t="s">
+        <v>0.55452327022665771</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M13">
         <f ca="1">(M17+((1/FACT(5))*(($B2/M4)^5)) * M18)^-1</f>
-        <v>0.44046836291411756</v>
-      </c>
-      <c r="O13" s="5" t="s">
+        <v>0.55452327022665771</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P13">
         <f ca="1">(P17+((1/FACT(5))*(($B2/P4)^5)) * P18)^-1</f>
-        <v>0.44046836291411756</v>
-      </c>
-      <c r="R13" s="5" t="s">
+        <v>0.55452327022665771</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="S13">
         <f ca="1">(S17+((1/FACT(5))*(($B2/S4)^5)) * S18)^-1</f>
-        <v>0.71348419677643971</v>
+        <v>0.70338831587022943</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>17.460956351153783</v>
-      </c>
-      <c r="F14" s="5" t="s">
+        <v>7.6937501066489888</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G14">
         <v>90</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J14">
         <v>90</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M14">
         <v>90</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <v>90</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="S14">
@@ -1773,78 +1789,78 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.115764815937645</v>
-      </c>
-      <c r="F15" s="5" t="s">
+        <v>1.5190355005002321</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G15">
         <f ca="1">B2/(5*G4)</f>
-        <v>0.16429951075703914</v>
-      </c>
-      <c r="I15" s="5" t="s">
+        <v>0.11800220632443448</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J15">
         <f ca="1">$B2/(5*J4)</f>
-        <v>0.16429951075703914</v>
-      </c>
-      <c r="L15" s="5" t="s">
+        <v>0.11800220632443448</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M15">
         <f ca="1">$B2/(5*M4)</f>
-        <v>0.16429951075703914</v>
-      </c>
-      <c r="O15" s="5" t="s">
+        <v>0.11800220632443448</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P15">
         <f ca="1">$B2/(5*P4)</f>
-        <v>0.16429951075703914</v>
-      </c>
-      <c r="R15" s="5" t="s">
+        <v>0.11800220632443448</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="S15">
         <f ca="1">$B2/(5*S4)</f>
-        <v>6.7524488447942482E-2</v>
+        <v>7.0375908305019733E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.17055653328315</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>1.5610877057550856</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G16">
         <f ca="1">(1/(FACT(5)*(5^(8-5))))*(((B2/G4)^8)*G13)</f>
-        <v>6.090790442625478E-6</v>
-      </c>
-      <c r="I16" s="5" t="s">
+        <v>5.4288716180584156E-7</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J16">
         <f ca="1">(1/(FACT(5)*(5^(8-5))))*(((B2/J4)^8)*J13)</f>
-        <v>6.090790442625478E-6</v>
-      </c>
-      <c r="L16" s="5" t="s">
+        <v>5.4288716180584156E-7</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M16">
         <f ca="1">(1/(FACT(5)*(5^(8-5))))*((($B2/M4)^8)*M13)</f>
-        <v>6.090790442625478E-6</v>
-      </c>
-      <c r="O16" s="5" t="s">
+        <v>5.4288716180584156E-7</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P16">
         <f ca="1">(1/(FACT(5)*(5^(8-5))))*(((H2/P4)^8)*P13)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="S16">
@@ -1855,391 +1871,391 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>13.395483284533556</v>
-      </c>
-      <c r="F17" s="5" t="s">
+        <v>6.4502548897755698</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G17">
         <f ca="1">((1/FACT(0))*((B2/G4)^0))+((1/FACT(1))*((B2/G4)^1))+((1/FACT(2))*((B2/G4)^2))+((1/FACT(3))*((B2/G4)^3))+((1/FACT(4))*((B2/G4)^4))</f>
-        <v>2.2703021348494965</v>
-      </c>
-      <c r="I17" s="5" t="s">
+        <v>1.8033485718010214</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J17">
         <f ca="1">((1/FACT(0))*(($B2/J4)^0))+((1/FACT(1))*(($B2/J4)^1))+((1/FACT(2))*(($B2/J4)^2))+((1/FACT(3))*(($B2/J4)^3))+((1/FACT(4))*(($B2/J4)^4))</f>
-        <v>2.2703021348494965</v>
-      </c>
-      <c r="L17" s="5" t="s">
+        <v>1.8033485718010214</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M17">
         <f ca="1">((1/FACT(0))*(($B2/M4)^0))+((1/FACT(1))*(($B2/M4)^1))+((1/FACT(2))*(($B2/M4)^2))+((1/FACT(3))*(($B2/M4)^3))+((1/FACT(4))*(($B2/M4)^4))</f>
-        <v>2.2703021348494965</v>
-      </c>
-      <c r="O17" s="5" t="s">
+        <v>1.8033485718010214</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P17">
         <f ca="1">((1/FACT(0))*(($B2/P4)^0))+((1/FACT(1))*(($B2/P4)^1))+((1/FACT(2))*(($B2/P4)^2))+((1/FACT(3))*(($B2/P4)^3))+((1/FACT(4))*(($B2/P4)^4))</f>
-        <v>2.2703021348494965</v>
-      </c>
-      <c r="R17" s="5" t="s">
+        <v>1.8033485718010214</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S17">
         <f ca="1">((1/FACT(0))*(($B2/S4)^0))+((1/FACT(1))*(($B2/S4)^1))+((1/FACT(2))*(($B2/S4)^2))+((1/FACT(3))*(($B2/S4)^3))+((1/FACT(4))*(($B2/S4)^4))</f>
-        <v>1.4015724962359817</v>
+        <v>1.4216895218570003</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>16.383740628910711</v>
-      </c>
-      <c r="F18" s="5" t="s">
+        <v>15.623966700200286</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G18">
         <f ca="1">((B2/5*G4)^1)+((B2/5*G4)^2)+((B2/5*G4)^3)</f>
-        <v>2.7199791344789037E-3</v>
-      </c>
-      <c r="I18" s="5" t="s">
+        <v>3.7911887882758183E-3</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J18">
         <f ca="1">(($B2/5*J4)^1)+(($B2/5*J4)^2)+(($B2/5*J4)^3)</f>
-        <v>2.7199791344789037E-3</v>
-      </c>
-      <c r="L18" s="5" t="s">
+        <v>3.7911887882758183E-3</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M18">
         <f ca="1">(($B2/5*M4)^1)+(($B2/5*M4)^2)+(($B2/5*M4)^3)</f>
-        <v>2.7199791344789037E-3</v>
-      </c>
-      <c r="O18" s="5" t="s">
+        <v>3.7911887882758183E-3</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P18">
         <f ca="1">(($B2/5*P4)^1)+(($B2/5*P4)^2)+(($B2/5*P4)^3)</f>
-        <v>2.7199791344789037E-3</v>
-      </c>
-      <c r="R18" s="5" t="s">
+        <v>3.7911887882758183E-3</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="S18">
         <f ca="1">(($B2/5*S4)^1)+(($B2/5*S4)^2)+(($B2/5*S4)^3)</f>
-        <v>6.6441084442270685E-3</v>
+        <v>6.3731937341169097E-3</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>9.094204828053746</v>
-      </c>
-      <c r="F19" s="5" t="s">
+        <v>2.5888590861180854</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G19">
         <f ca="1">(1/FACT(1))*((B2/G4)^1)*G13</f>
-        <v>0.36184368265371741</v>
-      </c>
-      <c r="I19" s="5" t="s">
+        <v>0.32717484672493097</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J19">
         <f ca="1">(1/FACT(1))*(($B2/J4)^1)*J13</f>
-        <v>0.36184368265371741</v>
-      </c>
-      <c r="L19" s="5" t="s">
+        <v>0.32717484672493097</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M19">
         <f ca="1">(1/FACT(1))*(($B2/M4)^1)*M13</f>
-        <v>0.36184368265371741</v>
-      </c>
-      <c r="O19" s="5" t="s">
+        <v>0.32717484672493097</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P19">
         <f ca="1">(1/FACT(1))*(($B2/P4)^1)*P13</f>
-        <v>0.36184368265371741</v>
-      </c>
-      <c r="R19" s="5" t="s">
+        <v>0.32717484672493097</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="S19">
         <f ca="1">(1/FACT(1))*(($B2/S4)^1)*S13</f>
-        <v>0.2408882770151011</v>
+        <v>0.2475079581025276</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6345231391227912</v>
-      </c>
-      <c r="F20" s="5" t="s">
+        <v>1.2850335021529427</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G20">
         <f ca="1">(1/FACT(2))*((B2/G4)^2)*G13</f>
-        <v>0.14862685007632775</v>
-      </c>
-      <c r="I20" s="5" t="s">
+        <v>9.651838441850133E-2</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J20">
         <f ca="1">(1/FACT(2))*(($B2/J4)^2)*J13</f>
-        <v>0.14862685007632775</v>
-      </c>
-      <c r="L20" s="5" t="s">
+        <v>9.651838441850133E-2</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M20">
         <f ca="1">(1/FACT(2))*(($B2/M4)^2)*M13</f>
-        <v>0.14862685007632775</v>
-      </c>
-      <c r="O20" s="5" t="s">
+        <v>9.651838441850133E-2</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P20">
         <f ca="1">(1/FACT(2))*(($B2/P4)^2)*P13</f>
-        <v>0.14862685007632775</v>
-      </c>
-      <c r="R20" s="5" t="s">
+        <v>9.651838441850133E-2</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="S20">
         <f ca="1">(1/FACT(2))*(($B2/S4)^2)*S13</f>
-        <v>4.0664644196377407E-2</v>
+        <v>4.3546493410465369E-2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6298576885187925</v>
-      </c>
-      <c r="F21" s="5" t="s">
+        <v>15.01763251404696</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G21">
         <f ca="1">(1/FACT(3))*((B2/G4)^3)*G13</f>
-        <v>4.0698864588167433E-2</v>
-      </c>
-      <c r="I21" s="5" t="s">
+        <v>1.8982303853755121E-2</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J21">
         <f ca="1">(1/FACT(3))*(($B2/J4)^3)*J13</f>
-        <v>4.0698864588167433E-2</v>
-      </c>
-      <c r="L21" s="5" t="s">
+        <v>1.8982303853755121E-2</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M21">
         <f ca="1">(1/FACT(3))*(($B2/M4)^3)*M13</f>
-        <v>4.0698864588167433E-2</v>
-      </c>
-      <c r="O21" s="5" t="s">
+        <v>1.8982303853755121E-2</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P21">
         <f ca="1">(1/FACT(3))*(($B2/P4)^3)*P13</f>
-        <v>4.0698864588167433E-2</v>
-      </c>
-      <c r="R21" s="5" t="s">
+        <v>1.8982303853755121E-2</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="S21">
         <f ca="1">(1/FACT(3))*(($B2/S4)^3)*S13</f>
-        <v>4.5764321621299614E-3</v>
+        <v>5.1077067121000942E-3</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G22">
         <f ca="1">(1/FACT(4))*((B2/G4)^4)*G13</f>
-        <v>8.358504425253618E-3</v>
-      </c>
-      <c r="I22" s="5" t="s">
+        <v>2.7999421698298999E-3</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J22">
         <f ca="1">(1/FACT(4))*(($B2/J4)^4)*J13</f>
-        <v>8.358504425253618E-3</v>
-      </c>
-      <c r="L22" s="5" t="s">
+        <v>2.7999421698298999E-3</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M22">
         <f ca="1">(1/FACT(4))*(($B2/M4)^4)*M13</f>
-        <v>8.358504425253618E-3</v>
-      </c>
-      <c r="O22" s="5" t="s">
+        <v>2.7999421698298999E-3</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P22">
         <f ca="1">(1/FACT(4))*(($B2/P4)^4)*P13</f>
-        <v>8.358504425253618E-3</v>
-      </c>
-      <c r="R22" s="5" t="s">
+        <v>2.7999421698298999E-3</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="S22">
         <f ca="1">(1/FACT(4))*(($B2/S4)^4)*S13</f>
-        <v>3.8627655083067129E-4</v>
+        <v>4.4932437402461257E-4</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G23">
         <f ca="1">(1/(FACT(5)*(5^(5-5))))*(((B2/G4)^5)*G13)</f>
-        <v>1.3732981877297159E-3</v>
-      </c>
-      <c r="I23" s="5" t="s">
+        <v>3.3039935362075263E-4</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J23">
         <f ca="1">(1/(FACT(5)*(5^(5-5))))*((($B2/J4)^5)*J13)</f>
-        <v>1.3732981877297159E-3</v>
-      </c>
-      <c r="L23" s="5" t="s">
+        <v>3.3039935362075263E-4</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M23">
         <f ca="1">(1/(FACT(5)*(5^(5-5))))*((($B2/M4)^5)*M13)</f>
-        <v>1.3732981877297159E-3</v>
-      </c>
-      <c r="O23" s="5" t="s">
+        <v>3.3039935362075263E-4</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="P23">
         <f ca="1">(1/(FACT(5)*(5^(5-5))))*((($B2/P4)^5)*P13)</f>
-        <v>1.3732981877297159E-3</v>
-      </c>
-      <c r="R23" s="5" t="s">
+        <v>3.3039935362075263E-4</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="S23">
         <f ca="1">(1/(FACT(5)*(5^(5-5))))*((($B2/S4)^5)*S13)</f>
-        <v>2.6083126494276727E-5</v>
+        <v>3.1621610945566524E-5</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G24">
         <f ca="1">(1/(FACT(5)*(5^(6-5))))*(((B2/G4)^6)*G13)</f>
-        <v>2.2563222036752089E-4</v>
-      </c>
-      <c r="I24" s="5" t="s">
+        <v>3.8987852695415847E-5</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J24">
         <f ca="1">(1/(FACT(5)*(5^(6-5))))*((($B2/J4)^6)*J13)</f>
-        <v>2.2563222036752089E-4</v>
-      </c>
-      <c r="L24" s="5" t="s">
+        <v>3.8987852695415847E-5</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M24">
         <f ca="1">(1/(FACT(5)*(5^(6-5))))*((($B2/M4)^6)*M13)</f>
-        <v>2.2563222036752089E-4</v>
-      </c>
-      <c r="O24" s="5" t="s">
+        <v>3.8987852695415847E-5</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="P24">
         <f ca="1">(1/(FACT(5)*(5^(6-5))))*((($B2/P4)^6)*P13)</f>
-        <v>2.2563222036752089E-4</v>
-      </c>
-      <c r="R24" s="5" t="s">
+        <v>3.8987852695415847E-5</v>
+      </c>
+      <c r="R24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="S24">
         <f ca="1">(1/(FACT(5)*(5^(6-5))))*((($B2/S4)^6)*S13)</f>
-        <v>1.7612497736490113E-6</v>
+        <v>2.2253995923621982E-6</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G25">
         <f ca="1">(1/(FACT(5)*(5^(7-5))))*(((B2/G4)^7)*G13)</f>
-        <v>3.7071263417408117E-5</v>
-      </c>
-      <c r="I25" s="5" t="s">
+        <v>4.6006526379111185E-6</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J25">
         <f ca="1">(1/(FACT(5)*(5^(7-5))))*((($B2/J4)^7)*J13)</f>
-        <v>3.7071263417408117E-5</v>
-      </c>
-      <c r="L25" s="5" t="s">
+        <v>4.6006526379111185E-6</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M25">
         <f ca="1">(1/(FACT(5)*(5^(7-5))))*((($B2/M4)^7)*M13)</f>
-        <v>3.7071263417408117E-5</v>
-      </c>
-      <c r="O25" s="5" t="s">
+        <v>4.6006526379111185E-6</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="P25">
         <f ca="1">(1/(FACT(5)*(5^(7-5))))*((($B2/P4)^7)*P13)</f>
-        <v>3.7071263417408117E-5</v>
-      </c>
-      <c r="R25" s="5" t="s">
+        <v>4.6006526379111185E-6</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="S25">
         <f ca="1">(1/(FACT(5)*(5^(7-5))))*((($B2/S4)^7)*S13)</f>
-        <v>1.1892748999470396E-7</v>
+        <v>1.5661451765411031E-7</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G26">
         <f ca="1">(1/(FACT(5)*(5^(8-5))))*(((B2/G4)^8)*G13)</f>
-        <v>6.090790442625478E-6</v>
-      </c>
-      <c r="I26" s="5" t="s">
+        <v>5.4288716180584156E-7</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J26">
         <f ca="1">(1/(FACT(5)*(5^(8-5))))*((($B2/J4)^8)*J13)</f>
-        <v>6.090790442625478E-6</v>
-      </c>
-      <c r="L26" s="5" t="s">
+        <v>5.4288716180584156E-7</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M26">
         <f ca="1">(1/(FACT(5)*(5^(8-5))))*((($B2/M4)^8)*M13)</f>
-        <v>6.090790442625478E-6</v>
-      </c>
-      <c r="O26" s="5" t="s">
+        <v>5.4288716180584156E-7</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P26">
         <f ca="1">(1/(FACT(5)*(5^(8-5))))*((($B2/P4)^8)*P13)</f>
-        <v>6.090790442625478E-6</v>
-      </c>
-      <c r="R26" s="5" t="s">
+        <v>5.4288716180584156E-7</v>
+      </c>
+      <c r="R26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="S26">
         <f ca="1">(1/(FACT(5)*(5^(8-5))))*((($B2/S4)^8)*S13)</f>
-        <v>8.0305179242901846E-9</v>
+        <v>1.1021888933660564E-8</v>
       </c>
     </row>
   </sheetData>
@@ -2271,18 +2287,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2296,31 +2312,31 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B6">
         <f>EXP(-20*(1-(A3/B3))*0.33)</f>
         <v>0.19204990862075408</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B7">
         <f>(1-(A3/B3))</f>
         <v>0.25</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B8">
@@ -2332,7 +2348,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B9">
@@ -2344,7 +2360,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B10">
@@ -2379,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,145 +2406,569 @@
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <f ca="1">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.7517140433891842</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="F2">
+        <f ca="1">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.376625727445147</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="H2">
+        <f ca="1">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.4174374214464625</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="J2">
+        <f ca="1">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.5042219797940932</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="L2">
+        <f ca="1">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.9128727023112073</v>
+      </c>
+      <c r="M2">
+        <f>_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
       <c r="N2" s="11">
-        <f ca="1">RAND()*0.1</f>
-        <v>9.3070048948518155E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.392146149569087</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0.77628547203285481</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.32778067811630662</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0.25670631631967489</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <f ca="1">R2+(D2+E2)</f>
+        <v>2.7157837242762586</v>
+      </c>
+      <c r="T2" s="11">
+        <f ca="1">S2</f>
+        <v>2.7157837242762586</v>
+      </c>
+      <c r="U2" s="11">
+        <f ca="1">T2+F2+G2</f>
+        <v>5.0564791326084793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" ca="1" si="0">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.5960252246611517</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" ca="1" si="1">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.4986023546423968</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="2">_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" ca="1" si="3">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.8007308855595952</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="4">_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" ca="1" si="5">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.6233648328776371</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="6">_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" ca="1" si="7">RAND()*(2.1-1.3)+1.3</f>
+        <v>1.7553323629195372</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="8">_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N9" ca="1" si="0">RAND()*0.1</f>
-        <v>8.3317908823683437E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.50733357903693688</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.31001293996404955</v>
+      </c>
+      <c r="P3" s="11">
+        <v>6.2764238315889287E-2</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0.65277704645935508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.521540660942821</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E9" si="9">_xlfn.NORM.S.DIST(1.8,0.4)</f>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5386170625019535</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0414489229724091</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.897746147782462</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.7174272817693659</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="8"/>
+        <v>0.96406968088707423</v>
+      </c>
       <c r="N4" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3373233962047988E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.23159728719851846</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.98851111621980736</v>
+      </c>
+      <c r="P4" s="11">
+        <v>0.12007418880564202</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0.30911486055329818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9640150935503653</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="9"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9717802045113122</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7072997305774262</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0394208308337993</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.6142249554516892</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>0.96406968088707423</v>
+      </c>
       <c r="N5" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8385426340365532E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.39410696723490612</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.26958650263263673</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0.11798890290102615</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0.96101265570143146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0661230769914551</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="9"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6645961113293115</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5811961689312186</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.9083042244996353</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.3075174995207259</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>0.96406968088707423</v>
+      </c>
       <c r="N6" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3762162401450328E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.26535190621349691</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.14401832977277762</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.40568699044398127</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.85804441370090645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4919598202522599</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="9"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9651468662160456</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8169687042931384</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.5760366432603874</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5784880082743435</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>0.96406968088707423</v>
+      </c>
       <c r="N7" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4492212704496856E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.80885785830016343</v>
+      </c>
+      <c r="O7" s="11">
+        <v>3.365409513436679E-2</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0.13209954406029423</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0.53406472849914954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5488254473807341</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="9"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.010479040559678</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.304468673716453</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.0844753146273547</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.3491367611321115</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>0.96406968088707423</v>
+      </c>
       <c r="N8" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4187215644668897E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.93470801279649285</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.45164598741874684</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0.48298641303103484</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>6.5356616677547663E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.626781122839748</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="9"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3229993794280079</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6445542041420698</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.406087863508483</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0.96406968088707423</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.9035068088299711</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>0.96406968088707423</v>
+      </c>
       <c r="N9" s="11">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5717053958560394E-2</v>
+        <v>7.6560128035725983E-2</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.32809414817912141</v>
+      </c>
+      <c r="P9" s="11">
+        <v>3.2800403013480417E-2</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0.94813424191218842</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>